--- a/output/fit_clients/fit_round_258.xlsx
+++ b/output/fit_clients/fit_round_258.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1931019523.523923</v>
+        <v>2360136244.023834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07441469890681612</v>
+        <v>0.08581668933154235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0420385516679847</v>
+        <v>0.04043623803360055</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>965509748.1061114</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2170097046.85687</v>
+        <v>2481475091.05726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.178591561370138</v>
+        <v>0.1525843853736941</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03185751808709033</v>
+        <v>0.04085871685781964</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1085048589.822116</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5151529304.432377</v>
+        <v>3431057111.473985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108858212901345</v>
+        <v>0.1552297486365819</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03748112742941648</v>
+        <v>0.02572029688174662</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2575764747.957139</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2662047077.723501</v>
+        <v>4233968414.619968</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09300763178389998</v>
+        <v>0.09983877047582475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0443047177127369</v>
+        <v>0.03973287249982295</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1331023631.085975</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2532764868.512461</v>
+        <v>2677918581.713078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.102374210562396</v>
+        <v>0.1286504680894332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04111704665012967</v>
+        <v>0.03748387477981845</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1266382406.184312</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2095761614.622161</v>
+        <v>2922976101.541642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06916143763691171</v>
+        <v>0.06535488943716194</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03876895711315044</v>
+        <v>0.04782944087132358</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1047880859.293787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3412223446.131703</v>
+        <v>3927061144.905622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1372146101874939</v>
+        <v>0.1402022388256416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03279403168313967</v>
+        <v>0.02383011944507113</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1706111822.710269</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1595272265.638855</v>
+        <v>2309589962.924903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1760229310967041</v>
+        <v>0.1772238712185423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02489517042887493</v>
+        <v>0.02917563748922045</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>797636215.5770738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5369860754.909464</v>
+        <v>5535863156.167886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1322740750727806</v>
+        <v>0.1493135063044293</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0490652671672746</v>
+        <v>0.05296166389828236</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>108</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2684930505.380512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2966492818.4648</v>
+        <v>3777862276.346579</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1507180877502365</v>
+        <v>0.173330896592822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03931248215263768</v>
+        <v>0.04476721020180729</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>106</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1483246349.802463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3038636085.894182</v>
+        <v>2358031667.96841</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1368545773272718</v>
+        <v>0.1775602131621844</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03796532674520231</v>
+        <v>0.04950224957115425</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1519318064.491261</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3468024573.595055</v>
+        <v>4093439923.041483</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09881086746297896</v>
+        <v>0.09860089191398852</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02111943834902712</v>
+        <v>0.02674806594378058</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>86</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1734012368.743537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2392791897.928858</v>
+        <v>3435406472.264104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1304752500852801</v>
+        <v>0.1799732959635886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03103475931712905</v>
+        <v>0.03437991705077435</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1196396027.362461</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1126070937.973712</v>
+        <v>1714230829.185124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06871030683553031</v>
+        <v>0.07729024206132666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03648597385671409</v>
+        <v>0.04380593509837857</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>563035469.7021265</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2417139735.156927</v>
+        <v>2731229219.490159</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1019669278870043</v>
+        <v>0.07031083904800987</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04325521990575923</v>
+        <v>0.04945140438971164</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1208569905.789849</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4793633891.66641</v>
+        <v>3502744928.399086</v>
       </c>
       <c r="F17" t="n">
-        <v>0.138798132500241</v>
+        <v>0.1123296270171561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04102695584730662</v>
+        <v>0.03399231027946828</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2396816941.207511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3141629026.13025</v>
+        <v>2948833494.260777</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1168499738876207</v>
+        <v>0.1598244983861752</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02565537858461588</v>
+        <v>0.02667072094780023</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>84</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1570814533.026678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1374440313.970143</v>
+        <v>908835679.0849516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11873968011443</v>
+        <v>0.1547740735858006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02384869283739037</v>
+        <v>0.02028547106764952</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>687220277.3562571</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2751376404.485309</v>
+        <v>2403793948.631757</v>
       </c>
       <c r="F20" t="n">
-        <v>0.100444632525918</v>
+        <v>0.1299686488843498</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02984189332373603</v>
+        <v>0.02996322596718688</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1375688148.561176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2038357695.954494</v>
+        <v>2302923872.26182</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09401996331484407</v>
+        <v>0.09826370983503822</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03477898295420628</v>
+        <v>0.04614316512466438</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1019178880.227971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3189877708.456599</v>
+        <v>3099258627.051258</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1226279771274274</v>
+        <v>0.1222495815566607</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04960323427973944</v>
+        <v>0.04696952606674358</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1594938904.384447</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1518882124.87532</v>
+        <v>1369261915.981131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1226074175653866</v>
+        <v>0.1723224308128817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03357801778122977</v>
+        <v>0.04864190947855623</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>759441045.1835086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4118096553.782332</v>
+        <v>3861287314.963295</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1159746588982307</v>
+        <v>0.1254015481271189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03391496148057019</v>
+        <v>0.02764736104044102</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2059048236.93572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>897939224.2414621</v>
+        <v>1276655043.499324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08320762134533419</v>
+        <v>0.08359653222909427</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02769075678682731</v>
+        <v>0.02670858159888687</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>448969699.5729368</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1092820163.868874</v>
+        <v>1320945623.779549</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09982021058398324</v>
+        <v>0.09272480119736591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03756292991484016</v>
+        <v>0.03717821093253477</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>546410076.7139018</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4545307595.302245</v>
+        <v>3324816955.160043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1339512981409727</v>
+        <v>0.1043087848850675</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01908167781951891</v>
+        <v>0.02047115611664565</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>62</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2272653780.739088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3687592497.022606</v>
+        <v>2955603152.924655</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1185239284194895</v>
+        <v>0.1118416494946078</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03622223414143833</v>
+        <v>0.04401894161415121</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>83</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1843796319.417264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3578641373.444063</v>
+        <v>5290158919.971766</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1060771047274782</v>
+        <v>0.1282612065110056</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03547300576463441</v>
+        <v>0.03226672355792358</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>114</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1789320732.804704</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2341553752.194014</v>
+        <v>1873928877.598588</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08903414888456515</v>
+        <v>0.09944293395529273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03597082503578691</v>
+        <v>0.0345999630456086</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1170776952.425316</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1360211146.151573</v>
+        <v>914316352.149595</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1081342611511468</v>
+        <v>0.09054385345358415</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04128422168545454</v>
+        <v>0.0361653544448247</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>680105486.8131737</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1727737372.794734</v>
+        <v>1597945333.641783</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1022627998976032</v>
+        <v>0.1018505955039763</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03461184796973901</v>
+        <v>0.02676669408618794</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>863868801.9250481</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2631425177.730193</v>
+        <v>2109405212.308365</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1267834216142308</v>
+        <v>0.1407697010205178</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0411802217410413</v>
+        <v>0.05886505358883133</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1315712615.896091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1404743542.505109</v>
+        <v>1531662410.283542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09988036388708643</v>
+        <v>0.0822833825393342</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02178040689726756</v>
+        <v>0.02511248199108998</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702371742.7060176</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1159527506.395865</v>
+        <v>1093912966.648983</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153287711964769</v>
+        <v>0.07993749058428552</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04030916118529034</v>
+        <v>0.0287232549084908</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>579763736.7811389</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2480709690.494769</v>
+        <v>2272767773.287239</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1650030817860043</v>
+        <v>0.1549373059855294</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01773307388049879</v>
+        <v>0.02603230375076108</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1240354868.741838</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2099586591.117167</v>
+        <v>2533789568.510103</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08375867632934016</v>
+        <v>0.07897298171703093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03648683823819111</v>
+        <v>0.03073403437268352</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1049793336.568669</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1360692614.958929</v>
+        <v>2100272556.389339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1170439090193248</v>
+        <v>0.1038030965856082</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03883148376431184</v>
+        <v>0.03323496864032827</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>680346376.4097831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1967972213.534206</v>
+        <v>1872362994.76002</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1574694977236427</v>
+        <v>0.192543887033945</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02958615680653438</v>
+        <v>0.02766963152927567</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>983986106.1862674</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1809707136.014545</v>
+        <v>1646398963.079282</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1075282532911019</v>
+        <v>0.1245273937276934</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0503026015915946</v>
+        <v>0.03742531721512505</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>904853456.6530355</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2204574707.522029</v>
+        <v>2162659261.48991</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1499815229389052</v>
+        <v>0.1099910901709682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04605397596984603</v>
+        <v>0.03919901288396504</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1102287407.954879</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4269098685.542425</v>
+        <v>3675274521.346622</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249390368302422</v>
+        <v>0.1089804192325697</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03335532726362678</v>
+        <v>0.03511980612626502</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2134549390.555445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2249042971.962553</v>
+        <v>2137313128.117856</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1275099807421173</v>
+        <v>0.1337124660964587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01859659941577263</v>
+        <v>0.01790670985047431</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>92</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1124521559.88481</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1793016779.80471</v>
+        <v>2240043354.751279</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08617275168562671</v>
+        <v>0.09628415323003846</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0278677103054026</v>
+        <v>0.02349627405834653</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>896508454.9440012</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1911785845.97977</v>
+        <v>2544340341.043943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1554567579718179</v>
+        <v>0.172773794761795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04014919696310699</v>
+        <v>0.04811924516863696</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>955892904.9627801</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4983417938.395197</v>
+        <v>3919075479.428639</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1287807363653491</v>
+        <v>0.1567885632631928</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04930577893700099</v>
+        <v>0.04952358821007107</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>91</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2491708995.027685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4987157544.100914</v>
+        <v>3728140623.814861</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1846971763491163</v>
+        <v>0.2030065994898292</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05587654357525663</v>
+        <v>0.04964517351950241</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>69</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2493578827.102062</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4246529238.13533</v>
+        <v>3323227755.357625</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0923052503912105</v>
+        <v>0.07502418672702761</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03035866269032988</v>
+        <v>0.03211242324285848</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>86</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2123264639.089714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1718561203.899336</v>
+        <v>1949142598.157039</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1194448608470006</v>
+        <v>0.141505483248981</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03599854363316054</v>
+        <v>0.03712258395229957</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>859280599.9869442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3698583238.046003</v>
+        <v>3918830921.803479</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1086158993015374</v>
+        <v>0.1251637509969907</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05086922581191155</v>
+        <v>0.04833174579044998</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>88</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1849291629.135291</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1504375923.529386</v>
+        <v>1082042108.617993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1409682827956833</v>
+        <v>0.1601982147236005</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0524686524775459</v>
+        <v>0.05126405981532706</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>752187963.9805235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4959995976.456507</v>
+        <v>5043699261.24861</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09544230708043835</v>
+        <v>0.1061419028041216</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04484854547018974</v>
+        <v>0.04552007346411509</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>106</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2479997988.203332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3494157880.528294</v>
+        <v>2339544078.15898</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1863571957372224</v>
+        <v>0.1578306849006476</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0239284126384549</v>
+        <v>0.02200876628766538</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>73</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1747078938.593425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4535079950.032366</v>
+        <v>4884831809.305146</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1315114800261847</v>
+        <v>0.153343310294464</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04412998709507386</v>
+        <v>0.05156353775233351</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2267540081.108519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4162412271.045147</v>
+        <v>4001155668.431495</v>
       </c>
       <c r="F55" t="n">
-        <v>0.191573249432044</v>
+        <v>0.1966135430545903</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02195073357273664</v>
+        <v>0.02053484530720249</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2081206117.617604</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532391215.621012</v>
+        <v>1320629887.966753</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1230902995674975</v>
+        <v>0.1103913663789709</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03824516588548946</v>
+        <v>0.03712701909887677</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>766195645.2601002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4467738096.727799</v>
+        <v>4150374672.377615</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1769697634634256</v>
+        <v>0.1388181846730593</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02676063775188183</v>
+        <v>0.02359676229725608</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>82</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2233869175.993356</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1405954957.448622</v>
+        <v>1245283590.782723</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1836582927575785</v>
+        <v>0.152896043194823</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03195290800850746</v>
+        <v>0.03042199844791144</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>702977518.4361671</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4649964082.891365</v>
+        <v>5004834398.662062</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09018884237241434</v>
+        <v>0.1206596156173362</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04445979531104829</v>
+        <v>0.03237125874071358</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2324981986.034936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3634145218.256474</v>
+        <v>3215056440.511139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1969099450530731</v>
+        <v>0.2036021178736492</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02649419927386227</v>
+        <v>0.02147009863416396</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1817072745.990454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2783676195.643762</v>
+        <v>2909358566.170297</v>
       </c>
       <c r="F61" t="n">
-        <v>0.124754158425752</v>
+        <v>0.1258822762007459</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02088024276021567</v>
+        <v>0.0208670601825082</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1391838098.683583</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1581877031.413022</v>
+        <v>2070530716.445767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.193840007082424</v>
+        <v>0.1449097741296509</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03356643556465404</v>
+        <v>0.03905683248029059</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>790938511.0093861</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4947102430.246798</v>
+        <v>5004986603.895737</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0661242176153876</v>
+        <v>0.08328558770024533</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02953967635374176</v>
+        <v>0.03834017446209367</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2473551235.240703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3867973777.903442</v>
+        <v>4776189404.174175</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1493734773248014</v>
+        <v>0.1641000375297259</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03434878014839952</v>
+        <v>0.02508252273993129</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>80</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1933986915.523658</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5795269179.410637</v>
+        <v>4595479660.374568</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254505496293321</v>
+        <v>0.1531333042889461</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03065443426754899</v>
+        <v>0.01943382943995792</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>92</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2897634501.159164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3490090978.778335</v>
+        <v>5549474600.766743</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311168102030423</v>
+        <v>0.159036080786327</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05064010830976991</v>
+        <v>0.03722621463328743</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>75</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1745045435.626009</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2176419096.497672</v>
+        <v>2236244608.482498</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06938087124362781</v>
+        <v>0.0730072451659956</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03817735450092092</v>
+        <v>0.04827575898991843</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1088209636.233864</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3958303417.787916</v>
+        <v>5841380483.396502</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1244589784058658</v>
+        <v>0.1459094913273937</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03398566795783433</v>
+        <v>0.04042504370901114</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1979151702.147387</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2470559092.286559</v>
+        <v>2204345860.14357</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1454827988314898</v>
+        <v>0.131868347341003</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05371338852410823</v>
+        <v>0.04877859387721487</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1235279611.911862</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2886837815.292702</v>
+        <v>2916576047.573989</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07669803499421285</v>
+        <v>0.07292268209780532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03712820082798357</v>
+        <v>0.04638420886854377</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1443418877.244498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4106581571.638539</v>
+        <v>3708668244.136018</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1267035140483752</v>
+        <v>0.1185269458657465</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02985891506345656</v>
+        <v>0.02862560730841154</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2053290824.794584</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2169978900.565701</v>
+        <v>1418910090.917208</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1003433825835826</v>
+        <v>0.09033948932244072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04824481912251985</v>
+        <v>0.0384076275984947</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1084989369.177359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3126875711.028399</v>
+        <v>2518564278.08785</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07154654945675788</v>
+        <v>0.07075318796477033</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03910189163265846</v>
+        <v>0.04175999933454835</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>98</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1563437839.880363</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3415841884.578553</v>
+        <v>3311115847.97826</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1665386659476512</v>
+        <v>0.1737891211829412</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02842359625453111</v>
+        <v>0.02817704456593524</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>88</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1707920971.744509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1917270283.643634</v>
+        <v>1719068284.9453</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1426871012175319</v>
+        <v>0.1110750585348635</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02437058224921972</v>
+        <v>0.02370947060588394</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>958635113.708771</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3243012585.689373</v>
+        <v>4427329962.323714</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051635475100758</v>
+        <v>0.09805103535533122</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02377191889361015</v>
+        <v>0.02067062912362079</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1621506245.785067</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1941079567.76454</v>
+        <v>2006718515.657585</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306728062821409</v>
+        <v>0.1869329322298763</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02620246467539785</v>
+        <v>0.02588073241215541</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>970539836.6947099</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3507369668.74079</v>
+        <v>3985069615.313131</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09123474511234152</v>
+        <v>0.1351350069246915</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05037437768173928</v>
+        <v>0.03801655316875437</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1753684835.363924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1848048756.727436</v>
+        <v>1205291416.712285</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1567134566210842</v>
+        <v>0.1447829867466952</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02970550687987864</v>
+        <v>0.03617395861072798</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>924024473.4108131</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4416928383.29195</v>
+        <v>3972124395.065822</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06792929302040362</v>
+        <v>0.0704684787609864</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03231776962232639</v>
+        <v>0.02842419201088013</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>54</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2208464211.839746</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3416279806.074724</v>
+        <v>3204396081.601889</v>
       </c>
       <c r="F81" t="n">
-        <v>0.089866365239089</v>
+        <v>0.106721734111729</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03134246339015001</v>
+        <v>0.02816520246628219</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1708139844.581308</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4453597358.362804</v>
+        <v>3663301699.949646</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1630785178589051</v>
+        <v>0.1396571346742607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02830695284781654</v>
+        <v>0.02280036576323988</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2226798693.593914</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1885917539.221442</v>
+        <v>1954586144.027033</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1408246906976804</v>
+        <v>0.1355130612531318</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0279149919463635</v>
+        <v>0.03778710618729091</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>942958740.7488786</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1717547893.400116</v>
+        <v>2510564564.017038</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1177372409924289</v>
+        <v>0.07448316219511519</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03902288019799555</v>
+        <v>0.04774533826072287</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>858773993.0412749</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3647517021.697778</v>
+        <v>3059516962.935614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1568580541155285</v>
+        <v>0.1817838105570476</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04129064390429595</v>
+        <v>0.05657329400532042</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>97</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1823758642.469428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2287008210.336539</v>
+        <v>2093252016.210815</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1701678660281344</v>
+        <v>0.1103705285188284</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02194536175146209</v>
+        <v>0.02216270168995404</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1143504172.679557</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1089652818.724407</v>
+        <v>1358111331.637593</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1647399057964324</v>
+        <v>0.1355743992583271</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03602420292204295</v>
+        <v>0.0298999067925544</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>544826436.6620191</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3743762536.553617</v>
+        <v>2510620123.121213</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1329624000528855</v>
+        <v>0.1152783400503985</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03726243782895334</v>
+        <v>0.03439764604760432</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1871881372.228384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3048466753.19045</v>
+        <v>2648160610.4723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1194750389977967</v>
+        <v>0.1366529474809027</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02564032651244936</v>
+        <v>0.02625773037521142</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>88</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1524233411.135655</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1315097145.062356</v>
+        <v>1585418768.437137</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1114116501877942</v>
+        <v>0.1288563750894489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04493780121491443</v>
+        <v>0.03475109350105642</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>657548517.407212</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2034579476.728902</v>
+        <v>1599172262.692262</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1312977700712545</v>
+        <v>0.1534059298699448</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03992962595104797</v>
+        <v>0.05809506098075369</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1017289706.002928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2191857826.00707</v>
+        <v>2813206116.053647</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1096516370266769</v>
+        <v>0.09592598995984455</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0424628739355977</v>
+        <v>0.03412909916194327</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1095928873.678347</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3907160044.252814</v>
+        <v>3099919940.636957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1347148299657937</v>
+        <v>0.1096035885365536</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04246474591285763</v>
+        <v>0.04362207204593517</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1953580028.723708</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2270271649.475969</v>
+        <v>2098532721.915398</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1378471559175359</v>
+        <v>0.1532707132651558</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03567745506358121</v>
+        <v>0.0339069178751417</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1135135858.250889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3104695691.785538</v>
+        <v>2168356727.201617</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09419989519517021</v>
+        <v>0.1265130087651054</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03931550129860577</v>
+        <v>0.05269766646007219</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1552347837.985557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1641101654.554387</v>
+        <v>1959828796.757459</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1091022287536769</v>
+        <v>0.09586539936407844</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03832739552486088</v>
+        <v>0.03436494770133131</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>820550852.5625941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3600283744.795156</v>
+        <v>3244299901.392248</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1117884159402311</v>
+        <v>0.1160938747355392</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02072041663068376</v>
+        <v>0.02047216891457665</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1800141896.623455</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2489822116.630461</v>
+        <v>3772997147.41186</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1074395673639726</v>
+        <v>0.1284018190450188</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02108320391864795</v>
+        <v>0.0201736180178535</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1244911008.391593</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2551124096.695731</v>
+        <v>3102156433.72366</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1411353489720499</v>
+        <v>0.08989816935811662</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02972584579377074</v>
+        <v>0.02676583223311636</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>81</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1275562001.745461</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4725970672.458592</v>
+        <v>4372640808.335087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1729264989717009</v>
+        <v>0.1778473172448748</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02374025283974879</v>
+        <v>0.02255162418143216</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2362985464.854055</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3257165100.725483</v>
+        <v>2520626373.880599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1914730896059259</v>
+        <v>0.1394816913673116</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05090151690735664</v>
+        <v>0.03813550564882339</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>104</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1628582673.373052</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_258.xlsx
+++ b/output/fit_clients/fit_round_258.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2360136244.023834</v>
+        <v>1946714608.643109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08581668933154235</v>
+        <v>0.1034779202555725</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04043623803360055</v>
+        <v>0.03268475594037288</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2481475091.05726</v>
+        <v>1755611407.417586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525843853736941</v>
+        <v>0.1710805436621812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04085871685781964</v>
+        <v>0.03261793517209639</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3431057111.473985</v>
+        <v>4449724095.081018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1552297486365819</v>
+        <v>0.1393543524128305</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02572029688174662</v>
+        <v>0.02800765199573907</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4233968414.619968</v>
+        <v>4048433379.766289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09983877047582475</v>
+        <v>0.08008634745382971</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03973287249982295</v>
+        <v>0.04733268417862951</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2677918581.713078</v>
+        <v>1853248392.213643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1286504680894332</v>
+        <v>0.1100459809646253</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03748387477981845</v>
+        <v>0.04430730397613964</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2922976101.541642</v>
+        <v>2779211967.074119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06535488943716194</v>
+        <v>0.08280171071119946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04782944087132358</v>
+        <v>0.03012731134601635</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3927061144.905622</v>
+        <v>2639787805.351638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1402022388256416</v>
+        <v>0.1629487404690673</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02383011944507113</v>
+        <v>0.02839244998774062</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2309589962.924903</v>
+        <v>1513753357.990265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1772238712185423</v>
+        <v>0.1626118541664719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02917563748922045</v>
+        <v>0.03086232730754434</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5535863156.167886</v>
+        <v>4835808858.624223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1493135063044293</v>
+        <v>0.1968254520560942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05296166389828236</v>
+        <v>0.04996229604687014</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3777862276.346579</v>
+        <v>4204351063.794809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.173330896592822</v>
+        <v>0.1851057596536001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04476721020180729</v>
+        <v>0.03550514129810341</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2358031667.96841</v>
+        <v>3222533201.796452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1775602131621844</v>
+        <v>0.19174156362624</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950224957115425</v>
+        <v>0.03352552959121496</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4093439923.041483</v>
+        <v>4530393998.13179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09860089191398852</v>
+        <v>0.06558198978635894</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02674806594378058</v>
+        <v>0.02454635643073163</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3435406472.264104</v>
+        <v>2564257797.479887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1799732959635886</v>
+        <v>0.1406194160508062</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03437991705077435</v>
+        <v>0.04262540769533509</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1714230829.185124</v>
+        <v>1565484825.143415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07729024206132666</v>
+        <v>0.09224474966032652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04380593509837857</v>
+        <v>0.03630576760930955</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2731229219.490159</v>
+        <v>2652054005.601927</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07031083904800987</v>
+        <v>0.07533906295595201</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04945140438971164</v>
+        <v>0.04689776700693581</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3502744928.399086</v>
+        <v>4585570644.768795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1123296270171561</v>
+        <v>0.1439339525545109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03399231027946828</v>
+        <v>0.03662416056649304</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2948833494.260777</v>
+        <v>3257035113.872226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1598244983861752</v>
+        <v>0.176764365909535</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02667072094780023</v>
+        <v>0.02475748733139628</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>908835679.0849516</v>
+        <v>1290312075.703318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1547740735858006</v>
+        <v>0.141801413653275</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02028547106764952</v>
+        <v>0.02751001110759603</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2403793948.631757</v>
+        <v>2473541525.608196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1299686488843498</v>
+        <v>0.1470833758957631</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02996322596718688</v>
+        <v>0.03056202653937506</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2302923872.26182</v>
+        <v>1821669235.692277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09826370983503822</v>
+        <v>0.07405721044902958</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04614316512466438</v>
+        <v>0.03790257331545839</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3099258627.051258</v>
+        <v>2840103706.4858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1222495815566607</v>
+        <v>0.1370743736034441</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04696952606674358</v>
+        <v>0.04826003866781288</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1369261915.981131</v>
+        <v>1253677994.539026</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1723224308128817</v>
+        <v>0.1810432325887399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04864190947855623</v>
+        <v>0.04602687388211878</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3861287314.963295</v>
+        <v>3914263013.480212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1254015481271189</v>
+        <v>0.1281901809002303</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02764736104044102</v>
+        <v>0.02522237699589558</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1276655043.499324</v>
+        <v>1099161480.934393</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08359653222909427</v>
+        <v>0.07500048202923075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02670858159888687</v>
+        <v>0.02645160922697267</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1320945623.779549</v>
+        <v>1066428988.89472</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09272480119736591</v>
+        <v>0.1125430096182963</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03717821093253477</v>
+        <v>0.03899186894503193</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3324816955.160043</v>
+        <v>2894178055.128818</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1043087848850675</v>
+        <v>0.1379318601432184</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02047115611664565</v>
+        <v>0.01958453864056724</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2955603152.924655</v>
+        <v>3867205306.671976</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1118416494946078</v>
+        <v>0.1337410080260336</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04401894161415121</v>
+        <v>0.03522918678054331</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5290158919.971766</v>
+        <v>5399474363.576519</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1282612065110056</v>
+        <v>0.09234277646881731</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03226672355792358</v>
+        <v>0.03774052815090245</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1873928877.598588</v>
+        <v>2010250444.95172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09944293395529273</v>
+        <v>0.1372200111536466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0345999630456086</v>
+        <v>0.03280535500437897</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>914316352.149595</v>
+        <v>1143052337.371769</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09054385345358415</v>
+        <v>0.0831636928654446</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0361653544448247</v>
+        <v>0.04327199016171688</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1597945333.641783</v>
+        <v>1599473852.215589</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1018505955039763</v>
+        <v>0.09240481676829503</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02676669408618794</v>
+        <v>0.03624088458573681</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2109405212.308365</v>
+        <v>1962340609.45667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1407697010205178</v>
+        <v>0.142572635140951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05886505358883133</v>
+        <v>0.0513430972217238</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1531662410.283542</v>
+        <v>1526966673.494911</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0822833825393342</v>
+        <v>0.1105738211172349</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02511248199108998</v>
+        <v>0.01909393944183622</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1093912966.648983</v>
+        <v>1093022481.692582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07993749058428552</v>
+        <v>0.1143384292131395</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0287232549084908</v>
+        <v>0.04404566583091764</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2272767773.287239</v>
+        <v>2035541228.513666</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1549373059855294</v>
+        <v>0.153197710325912</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02603230375076108</v>
+        <v>0.02815401694667207</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2533789568.510103</v>
+        <v>2946668312.122435</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07897298171703093</v>
+        <v>0.09869802822856452</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03073403437268352</v>
+        <v>0.03066177155990941</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2100272556.389339</v>
+        <v>1371139768.715559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038030965856082</v>
+        <v>0.1041104729315055</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03323496864032827</v>
+        <v>0.03871966849193705</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1872362994.76002</v>
+        <v>1984015199.105956</v>
       </c>
       <c r="F39" t="n">
-        <v>0.192543887033945</v>
+        <v>0.1410999589153998</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02766963152927567</v>
+        <v>0.02256510401169566</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1646398963.079282</v>
+        <v>1170971564.355469</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1245273937276934</v>
+        <v>0.1401335320593939</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03742531721512505</v>
+        <v>0.05745103717150735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2162659261.48991</v>
+        <v>2734628864.609702</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1099910901709682</v>
+        <v>0.158557721344972</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03919901288396504</v>
+        <v>0.02910113612583935</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3675274521.346622</v>
+        <v>3760206831.462465</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1089804192325697</v>
+        <v>0.08887868651142908</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03511980612626502</v>
+        <v>0.03933049525270171</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2137313128.117856</v>
+        <v>2528215851.245751</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1337124660964587</v>
+        <v>0.1670163597542531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01790670985047431</v>
+        <v>0.02309744398357101</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2240043354.751279</v>
+        <v>1757051158.996937</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09628415323003846</v>
+        <v>0.07118718513134467</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02349627405834653</v>
+        <v>0.03447748409956845</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2544340341.043943</v>
+        <v>1801235182.585486</v>
       </c>
       <c r="F45" t="n">
-        <v>0.172773794761795</v>
+        <v>0.1549616436143219</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04811924516863696</v>
+        <v>0.03895482331360038</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3919075479.428639</v>
+        <v>5377637101.926346</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1567885632631928</v>
+        <v>0.1461594304873788</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04952358821007107</v>
+        <v>0.05971308624303873</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3728140623.814861</v>
+        <v>5112773965.138637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030065994898292</v>
+        <v>0.1794364924403856</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04964517351950241</v>
+        <v>0.05089493907445398</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3323227755.357625</v>
+        <v>3267971602.326153</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07502418672702761</v>
+        <v>0.07755711479517678</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03211242324285848</v>
+        <v>0.0361586545266008</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1949142598.157039</v>
+        <v>1253295771.760312</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141505483248981</v>
+        <v>0.1834870350952009</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03712258395229957</v>
+        <v>0.03982976934384796</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3918830921.803479</v>
+        <v>4037418953.445122</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1251637509969907</v>
+        <v>0.151465874282264</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04833174579044998</v>
+        <v>0.03337487647131371</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1082042108.617993</v>
+        <v>1203633699.19222</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1601982147236005</v>
+        <v>0.1751946529145978</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05126405981532706</v>
+        <v>0.04267179295901128</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5043699261.24861</v>
+        <v>3806339247.261672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1061419028041216</v>
+        <v>0.09645349529978492</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04552007346411509</v>
+        <v>0.05509742916968442</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2339544078.15898</v>
+        <v>3203583694.452967</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1578306849006476</v>
+        <v>0.1514104616849257</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02200876628766538</v>
+        <v>0.0245559433354588</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4884831809.305146</v>
+        <v>3423853022.986684</v>
       </c>
       <c r="F54" t="n">
-        <v>0.153343310294464</v>
+        <v>0.1105785553887157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05156353775233351</v>
+        <v>0.0449208990032573</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4001155668.431495</v>
+        <v>4056992891.130633</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1966135430545903</v>
+        <v>0.1946089559250446</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02053484530720249</v>
+        <v>0.02948137923341963</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1320629887.966753</v>
+        <v>1798334846.703022</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1103913663789709</v>
+        <v>0.1160169282227054</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03712701909887677</v>
+        <v>0.04560470803156504</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4150374672.377615</v>
+        <v>3493676211.031964</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1388181846730593</v>
+        <v>0.1725165318314645</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02359676229725608</v>
+        <v>0.02657346015082108</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1245283590.782723</v>
+        <v>1206170758.389036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.152896043194823</v>
+        <v>0.1637216322330005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03042199844791144</v>
+        <v>0.03496138307187236</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5004834398.662062</v>
+        <v>4832218495.623158</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1206596156173362</v>
+        <v>0.1098890437949685</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03237125874071358</v>
+        <v>0.03364762078163865</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3215056440.511139</v>
+        <v>3760725240.014077</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2036021178736492</v>
+        <v>0.1913086538792431</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02147009863416396</v>
+        <v>0.02032575105910774</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2909358566.170297</v>
+        <v>3063851393.8369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1258822762007459</v>
+        <v>0.1623418563690513</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0208670601825082</v>
+        <v>0.02487711716141081</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2070530716.445767</v>
+        <v>1294264537.847703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1449097741296509</v>
+        <v>0.1423486964222151</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03905683248029059</v>
+        <v>0.03147094885193349</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5004986603.895737</v>
+        <v>3596208651.574437</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08328558770024533</v>
+        <v>0.06885238984742661</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03834017446209367</v>
+        <v>0.03641105909103875</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4776189404.174175</v>
+        <v>4434748338.825815</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1641000375297259</v>
+        <v>0.1874491820438255</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02508252273993129</v>
+        <v>0.02847902841362792</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4595479660.374568</v>
+        <v>3972308406.783451</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1531333042889461</v>
+        <v>0.1600546302201736</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01943382943995792</v>
+        <v>0.03134618595795007</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5549474600.766743</v>
+        <v>5035862748.364691</v>
       </c>
       <c r="F66" t="n">
-        <v>0.159036080786327</v>
+        <v>0.1256872601121514</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03722621463328743</v>
+        <v>0.05046642449956876</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2236244608.482498</v>
+        <v>2839037705.189975</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0730072451659956</v>
+        <v>0.08740441231281053</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04827575898991843</v>
+        <v>0.03818522544564086</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5841380483.396502</v>
+        <v>5733168849.241536</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1459094913273937</v>
+        <v>0.1345170964452619</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04042504370901114</v>
+        <v>0.03830029652347643</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2204345860.14357</v>
+        <v>2152846122.120296</v>
       </c>
       <c r="F69" t="n">
-        <v>0.131868347341003</v>
+        <v>0.1607824154805824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04877859387721487</v>
+        <v>0.04506878160555425</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2916576047.573989</v>
+        <v>3241503438.629057</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07292268209780532</v>
+        <v>0.07607431370788417</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04638420886854377</v>
+        <v>0.03683419624985788</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3708668244.136018</v>
+        <v>4864314633.78494</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1185269458657465</v>
+        <v>0.114165778761448</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02862560730841154</v>
+        <v>0.02285679018266116</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1418910090.917208</v>
+        <v>2145600786.967067</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09033948932244072</v>
+        <v>0.07686036190336354</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0384076275984947</v>
+        <v>0.03992306280914212</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2518564278.08785</v>
+        <v>2900334391.313936</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07075318796477033</v>
+        <v>0.1051597374814946</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04175999933454835</v>
+        <v>0.04610714693732258</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3311115847.97826</v>
+        <v>3234699964.022216</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1737891211829412</v>
+        <v>0.1361352808221108</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02817704456593524</v>
+        <v>0.03099265925495168</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1719068284.9453</v>
+        <v>2217133856.653588</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1110750585348635</v>
+        <v>0.1232037210975598</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02370947060588394</v>
+        <v>0.03693709024801642</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4427329962.323714</v>
+        <v>3299654630.092792</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09805103535533122</v>
+        <v>0.08584626479756752</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02067062912362079</v>
+        <v>0.02967639238492201</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2006718515.657585</v>
+        <v>1751479266.73703</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1869329322298763</v>
+        <v>0.1767576181242223</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02588073241215541</v>
+        <v>0.02683843536590902</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3985069615.313131</v>
+        <v>4516382434.198428</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1351350069246915</v>
+        <v>0.09322809500349905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03801655316875437</v>
+        <v>0.05272512947605681</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1205291416.712285</v>
+        <v>1312231534.002725</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1447829867466952</v>
+        <v>0.155897146065399</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03617395861072798</v>
+        <v>0.03145758164155612</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3972124395.065822</v>
+        <v>3613831996.728306</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0704684787609864</v>
+        <v>0.1020070034683954</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02842419201088013</v>
+        <v>0.03377812556907052</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3204396081.601889</v>
+        <v>4382410651.504855</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106721734111729</v>
+        <v>0.09318118711087441</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02816520246628219</v>
+        <v>0.02717662797454216</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3663301699.949646</v>
+        <v>3491473836.090904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1396571346742607</v>
+        <v>0.1862265296717901</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02280036576323988</v>
+        <v>0.02915348279446415</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1954586144.027033</v>
+        <v>1636503630.012577</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1355130612531318</v>
+        <v>0.1520336540822248</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03778710618729091</v>
+        <v>0.04241349621976126</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2510564564.017038</v>
+        <v>2041898619.498288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07448316219511519</v>
+        <v>0.09446385827140573</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04774533826072287</v>
+        <v>0.03776383595513799</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3059516962.935614</v>
+        <v>2881610292.740586</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1817838105570476</v>
+        <v>0.1695228454464607</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05657329400532042</v>
+        <v>0.05439840226754135</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2093252016.210815</v>
+        <v>2014628881.084347</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1103705285188284</v>
+        <v>0.141473681588743</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02216270168995404</v>
+        <v>0.01766431606693762</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1358111331.637593</v>
+        <v>928532617.1121128</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1355743992583271</v>
+        <v>0.1185043122354985</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0298999067925544</v>
+        <v>0.03218399995287018</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2510620123.121213</v>
+        <v>2752471216.253871</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1152783400503985</v>
+        <v>0.1706664774565317</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03439764604760432</v>
+        <v>0.02703566547904886</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2648160610.4723</v>
+        <v>2242104985.770851</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1366529474809027</v>
+        <v>0.1546547537614459</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02625773037521142</v>
+        <v>0.03091902456116665</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585418768.437137</v>
+        <v>1572937592.803128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1288563750894489</v>
+        <v>0.133468642092213</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03475109350105642</v>
+        <v>0.05053943151891233</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1599172262.692262</v>
+        <v>1541516172.020134</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1534059298699448</v>
+        <v>0.1286344998938407</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05809506098075369</v>
+        <v>0.06161529446050196</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2813206116.053647</v>
+        <v>2323229371.71722</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09592598995984455</v>
+        <v>0.08887300096372787</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03412909916194327</v>
+        <v>0.0471762220041257</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3099919940.636957</v>
+        <v>4081153768.403339</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1096035885365536</v>
+        <v>0.1267584737760536</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04362207204593517</v>
+        <v>0.04808060915664253</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2098532721.915398</v>
+        <v>2268541060.990838</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1532707132651558</v>
+        <v>0.1475938773242188</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0339069178751417</v>
+        <v>0.03913235500250857</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2168356727.201617</v>
+        <v>2468402688.789147</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1265130087651054</v>
+        <v>0.130826464980366</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05269766646007219</v>
+        <v>0.04860601716959985</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1959828796.757459</v>
+        <v>2285514746.1535</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09586539936407844</v>
+        <v>0.1252868300048099</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03436494770133131</v>
+        <v>0.03138071106407756</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3244299901.392248</v>
+        <v>4398114625.999924</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1160938747355392</v>
+        <v>0.1430472302029083</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02047216891457665</v>
+        <v>0.02169712454409256</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3772997147.41186</v>
+        <v>2579122355.467118</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1284018190450188</v>
+        <v>0.08863648950839524</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0201736180178535</v>
+        <v>0.02529908909324144</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3102156433.72366</v>
+        <v>3110368621.793959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08989816935811662</v>
+        <v>0.09031444895438082</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02676583223311636</v>
+        <v>0.02617460350663252</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4372640808.335087</v>
+        <v>3710390875.784763</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1778473172448748</v>
+        <v>0.1306293058073204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02255162418143216</v>
+        <v>0.02705941046888327</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2520626373.880599</v>
+        <v>2664536772.213587</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1394816913673116</v>
+        <v>0.1403631999774504</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03813550564882339</v>
+        <v>0.05620259492916548</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_258.xlsx
+++ b/output/fit_clients/fit_round_258.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1946714608.643109</v>
+        <v>1552263819.860405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034779202555725</v>
+        <v>0.09552864622901255</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03268475594037288</v>
+        <v>0.0357528584182833</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1755611407.417586</v>
+        <v>2391799276.051125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1710805436621812</v>
+        <v>0.1400362316049217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03261793517209639</v>
+        <v>0.04374900285052476</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4449724095.081018</v>
+        <v>3274282322.842239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393543524128305</v>
+        <v>0.131263761860756</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02800765199573907</v>
+        <v>0.02466455250354752</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>139</v>
+      </c>
+      <c r="J4" t="n">
+        <v>257</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59.59609632188981</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4048433379.766289</v>
+        <v>3372608238.266907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08008634745382971</v>
+        <v>0.06914995241224603</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04733268417862951</v>
+        <v>0.04173129995354933</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>107</v>
+      </c>
+      <c r="J5" t="n">
+        <v>257</v>
+      </c>
+      <c r="K5" t="n">
+        <v>75.63487549535442</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1853248392.213643</v>
+        <v>2011191989.165954</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1100459809646253</v>
+        <v>0.1377801868080369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04430730397613964</v>
+        <v>0.03483942515690065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2779211967.074119</v>
+        <v>2614883125.407618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08280171071119946</v>
+        <v>0.07460344152623061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03012731134601635</v>
+        <v>0.04514502258964555</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2639787805.351638</v>
+        <v>2851504994.95507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1629487404690673</v>
+        <v>0.2032459993793527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02839244998774062</v>
+        <v>0.02927900289937771</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1513753357.990265</v>
+        <v>1808801924.949537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1626118541664719</v>
+        <v>0.1714887219886153</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03086232730754434</v>
+        <v>0.02638048647690269</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4835808858.624223</v>
+        <v>5774385329.399239</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1968254520560942</v>
+        <v>0.2129945779911877</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04996229604687014</v>
+        <v>0.03482439117365237</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>233</v>
+      </c>
+      <c r="J10" t="n">
+        <v>258</v>
+      </c>
+      <c r="K10" t="n">
+        <v>104.8630260123786</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4204351063.794809</v>
+        <v>2594782035.436546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1851057596536001</v>
+        <v>0.1722715837385539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03550514129810341</v>
+        <v>0.03311804676435145</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>105</v>
+      </c>
+      <c r="J11" t="n">
+        <v>257</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.02136555535965</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3222533201.796452</v>
+        <v>2406616599.225449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.19174156362624</v>
+        <v>0.1534541607111343</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03352552959121496</v>
+        <v>0.04643548154284211</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4530393998.13179</v>
+        <v>4925078097.137773</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06558198978635894</v>
+        <v>0.07389548353108263</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02454635643073163</v>
+        <v>0.01913181502596387</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>131</v>
+      </c>
+      <c r="J13" t="n">
+        <v>257</v>
+      </c>
+      <c r="K13" t="n">
+        <v>99.18143698973954</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2564257797.479887</v>
+        <v>2725613059.811408</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1406194160508062</v>
+        <v>0.1396367726970125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04262540769533509</v>
+        <v>0.03876375890913177</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1565484825.143415</v>
+        <v>1151645660.044799</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09224474966032652</v>
+        <v>0.07347169024847469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03630576760930955</v>
+        <v>0.04625211545244963</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2652054005.601927</v>
+        <v>2536105204.761258</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07533906295595201</v>
+        <v>0.08091423812559655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04689776700693581</v>
+        <v>0.03480177457360187</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4585570644.768795</v>
+        <v>4031956319.878179</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1439339525545109</v>
+        <v>0.1720165558650118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03662416056649304</v>
+        <v>0.0341407113738114</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>123</v>
+      </c>
+      <c r="J17" t="n">
+        <v>258</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3257035113.872226</v>
+        <v>3222622691.793832</v>
       </c>
       <c r="F18" t="n">
-        <v>0.176764365909535</v>
+        <v>0.1671213064523405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02475748733139628</v>
+        <v>0.02288175186461303</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1290312075.703318</v>
+        <v>1376444262.662096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.141801413653275</v>
+        <v>0.1475254547469564</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02751001110759603</v>
+        <v>0.01931340431192067</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2473541525.608196</v>
+        <v>2277551820.415778</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1470833758957631</v>
+        <v>0.1581522681500515</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03056202653937506</v>
+        <v>0.0218793404175731</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1821669235.692277</v>
+        <v>2377475614.829696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07405721044902958</v>
+        <v>0.09385101817462534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03790257331545839</v>
+        <v>0.03260808332713956</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2840103706.4858</v>
+        <v>2509014335.435894</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1370743736034441</v>
+        <v>0.1343156254068961</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04826003866781288</v>
+        <v>0.05299710911978366</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1253677994.539026</v>
+        <v>1426697565.990677</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810432325887399</v>
+        <v>0.1697478398262481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04602687388211878</v>
+        <v>0.04236691853881722</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3914263013.480212</v>
+        <v>4075525727.244699</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281901809002303</v>
+        <v>0.100362863887954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02522237699589558</v>
+        <v>0.02295588926733656</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>77</v>
+      </c>
+      <c r="J24" t="n">
+        <v>257</v>
+      </c>
+      <c r="K24" t="n">
+        <v>89.120713733363</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1099161480.934393</v>
+        <v>1272166813.295164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07500048202923075</v>
+        <v>0.08382248343272256</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02645160922697267</v>
+        <v>0.02044385590109585</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1066428988.89472</v>
+        <v>1207457936.91307</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1125430096182963</v>
+        <v>0.07898798317302221</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03899186894503193</v>
+        <v>0.03469687959003594</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2894178055.128818</v>
+        <v>4325669755.167337</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1379318601432184</v>
+        <v>0.1188624163823985</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01958453864056724</v>
+        <v>0.02274716434595855</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>105</v>
+      </c>
+      <c r="J27" t="n">
+        <v>257</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.59934359719377</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3867205306.671976</v>
+        <v>3857772726.870663</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1337410080260336</v>
+        <v>0.1503438030723383</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03522918678054331</v>
+        <v>0.03592071240149949</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>51</v>
+      </c>
+      <c r="J28" t="n">
+        <v>258</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5399474363.576519</v>
+        <v>4674809942.368001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09234277646881731</v>
+        <v>0.09781287373519279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03774052815090245</v>
+        <v>0.03670165465763806</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>246</v>
+      </c>
+      <c r="J29" t="n">
+        <v>258</v>
+      </c>
+      <c r="K29" t="n">
+        <v>104.2711469079123</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2010250444.95172</v>
+        <v>1715173664.039989</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1372200111536466</v>
+        <v>0.1102860115168153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03280535500437897</v>
+        <v>0.03743933372801763</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1143052337.371769</v>
+        <v>1048510938.090559</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0831636928654446</v>
+        <v>0.07589220795528691</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04327199016171688</v>
+        <v>0.03196941671808541</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1599473852.215589</v>
+        <v>1808628667.448277</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09240481676829503</v>
+        <v>0.1128217325671562</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03624088458573681</v>
+        <v>0.0373010473140676</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1962340609.45667</v>
+        <v>2483964187.109505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.142572635140951</v>
+        <v>0.1773869784080594</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0513430972217238</v>
+        <v>0.03934146297926387</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1526966673.494911</v>
+        <v>1289503087.348846</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1105738211172349</v>
+        <v>0.09324609608174024</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01909393944183622</v>
+        <v>0.02284433187912639</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1093022481.692582</v>
+        <v>1301329466.521497</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1143384292131395</v>
+        <v>0.1146105154649933</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04404566583091764</v>
+        <v>0.03442468207635466</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2035541228.513666</v>
+        <v>2869677753.250343</v>
       </c>
       <c r="F36" t="n">
-        <v>0.153197710325912</v>
+        <v>0.1454273822833058</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02815401694667207</v>
+        <v>0.01957932031289722</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2946668312.122435</v>
+        <v>2802685512.950715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09869802822856452</v>
+        <v>0.1047177710874419</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03066177155990941</v>
+        <v>0.03209280012731126</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1371139768.715559</v>
+        <v>1868337044.544699</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1041104729315055</v>
+        <v>0.09125347645038835</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03871966849193705</v>
+        <v>0.03345080364061766</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1984015199.105956</v>
+        <v>1437240035.974271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1410999589153998</v>
+        <v>0.1866397493549812</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02256510401169566</v>
+        <v>0.02892001680085513</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1170971564.355469</v>
+        <v>1556488656.177022</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1401335320593939</v>
+        <v>0.1396365221757107</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05745103717150735</v>
+        <v>0.03817078084226545</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2734628864.609702</v>
+        <v>2013554279.565155</v>
       </c>
       <c r="F41" t="n">
-        <v>0.158557721344972</v>
+        <v>0.1025120041822616</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02910113612583935</v>
+        <v>0.0297417976785826</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3760206831.462465</v>
+        <v>4164279967.637449</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08887868651142908</v>
+        <v>0.07783744918026561</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03933049525270171</v>
+        <v>0.04196968790985726</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>107</v>
+      </c>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
+      <c r="K42" t="n">
+        <v>107.131106601095</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2528215851.245751</v>
+        <v>2948606341.856769</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1670163597542531</v>
+        <v>0.1433908467065825</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02309744398357101</v>
+        <v>0.02101350831855881</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1757051158.996937</v>
+        <v>1823862454.750149</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07118718513134467</v>
+        <v>0.07053537633616717</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03447748409956845</v>
+        <v>0.03330160602424127</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1801235182.585486</v>
+        <v>2055955099.119473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1549616436143219</v>
+        <v>0.1667160381876483</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03895482331360038</v>
+        <v>0.04047850495702325</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5377637101.926346</v>
+        <v>4674120589.431024</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1461594304873788</v>
+        <v>0.1651517809901764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05971308624303873</v>
+        <v>0.04851157414407955</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>149</v>
+      </c>
+      <c r="J46" t="n">
+        <v>258</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5112773965.138637</v>
+        <v>3483638901.62788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1794364924403856</v>
+        <v>0.1735580253236325</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05089493907445398</v>
+        <v>0.04533863364766333</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>116</v>
+      </c>
+      <c r="J47" t="n">
+        <v>258</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3267971602.326153</v>
+        <v>3986575894.805219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07755711479517678</v>
+        <v>0.097185389746102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0361586545266008</v>
+        <v>0.03004099268530805</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>128</v>
+      </c>
+      <c r="J48" t="n">
+        <v>257</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.18480808888184</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1253295771.760312</v>
+        <v>1868902239.500641</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1834870350952009</v>
+        <v>0.1321491808276849</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03982976934384796</v>
+        <v>0.02891498364356243</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4037418953.445122</v>
+        <v>2617558684.430765</v>
       </c>
       <c r="F50" t="n">
-        <v>0.151465874282264</v>
+        <v>0.1234265873262596</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03337487647131371</v>
+        <v>0.04914109227045325</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1203633699.19222</v>
+        <v>1048248223.362152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1751946529145978</v>
+        <v>0.1769690914209206</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04267179295901128</v>
+        <v>0.0475043699556388</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3806339247.261672</v>
+        <v>4698923670.571907</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09645349529978492</v>
+        <v>0.09930958166930076</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05509742916968442</v>
+        <v>0.04054465588611941</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>165</v>
+      </c>
+      <c r="J52" t="n">
+        <v>257</v>
+      </c>
+      <c r="K52" t="n">
+        <v>97.5914654533036</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3203583694.452967</v>
+        <v>3177728204.151116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1514104616849257</v>
+        <v>0.1396863326909364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0245559433354588</v>
+        <v>0.02335690154766525</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>256</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3423853022.986684</v>
+        <v>4657406949.668245</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1105785553887157</v>
+        <v>0.1567415553064017</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0449208990032573</v>
+        <v>0.03848582750972661</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>136</v>
+      </c>
+      <c r="J54" t="n">
+        <v>258</v>
+      </c>
+      <c r="K54" t="n">
+        <v>99.84219820504879</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4056992891.130633</v>
+        <v>4964816984.299163</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1946089559250446</v>
+        <v>0.209865538936448</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02948137923341963</v>
+        <v>0.02566276349081519</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>115</v>
+      </c>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1798334846.703022</v>
+        <v>1611416136.251129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1160169282227054</v>
+        <v>0.106785085440364</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04560470803156504</v>
+        <v>0.03647712809371697</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3493676211.031964</v>
+        <v>4362687377.278624</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1725165318314645</v>
+        <v>0.1402369028665827</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02657346015082108</v>
+        <v>0.02615328393212086</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>103</v>
+      </c>
+      <c r="J57" t="n">
+        <v>258</v>
+      </c>
+      <c r="K57" t="n">
+        <v>99.68418317249176</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1206170758.389036</v>
+        <v>1340021507.021105</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1637216322330005</v>
+        <v>0.150067124475379</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03496138307187236</v>
+        <v>0.03461258508902536</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4832218495.623158</v>
+        <v>5348535522.763595</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1098890437949685</v>
+        <v>0.1064225676301364</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03364762078163865</v>
+        <v>0.03462207483685179</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>124</v>
+      </c>
+      <c r="J59" t="n">
+        <v>258</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3760725240.014077</v>
+        <v>2953772584.38292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1913086538792431</v>
+        <v>0.1603833007336321</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02032575105910774</v>
+        <v>0.0303792783248164</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3063851393.8369</v>
+        <v>2827896993.441684</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1623418563690513</v>
+        <v>0.1466556481118089</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02487711716141081</v>
+        <v>0.02971140164710329</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294264537.847703</v>
+        <v>1920070270.469656</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1423486964222151</v>
+        <v>0.1648024739140502</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03147094885193349</v>
+        <v>0.04089299758231498</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2662,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3596208651.574437</v>
+        <v>4186326073.001731</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06885238984742661</v>
+        <v>0.1043693453082612</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03641105909103875</v>
+        <v>0.04550599251750879</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>126</v>
+      </c>
+      <c r="J63" t="n">
+        <v>257</v>
+      </c>
+      <c r="K63" t="n">
+        <v>93.20979408237068</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2699,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4434748338.825815</v>
+        <v>3390388344.314527</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1874491820438255</v>
+        <v>0.123988959776378</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02847902841362792</v>
+        <v>0.03033680025009672</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>127</v>
+      </c>
+      <c r="J64" t="n">
+        <v>257</v>
+      </c>
+      <c r="K64" t="n">
+        <v>63.21421891084558</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3972308406.783451</v>
+        <v>5174053533.114653</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1600546302201736</v>
+        <v>0.128484284434928</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03134618595795007</v>
+        <v>0.02945963793513316</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>206</v>
+      </c>
+      <c r="J65" t="n">
+        <v>258</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5035862748.364691</v>
+        <v>5729890213.265161</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256872601121514</v>
+        <v>0.1021374560268381</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05046642449956876</v>
+        <v>0.0394078048680532</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>127</v>
+      </c>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2839037705.189975</v>
+        <v>3295777945.356687</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08740441231281053</v>
+        <v>0.06352151428803422</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03818522544564086</v>
+        <v>0.03983320857789307</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5733168849.241536</v>
+        <v>4532896430.62796</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1345170964452619</v>
+        <v>0.1577184460207083</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03830029652347643</v>
+        <v>0.04875323426669155</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>131</v>
+      </c>
+      <c r="J68" t="n">
+        <v>258</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2152846122.120296</v>
+        <v>2178294438.040945</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1607824154805824</v>
+        <v>0.112507541889155</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04506878160555425</v>
+        <v>0.05415576406340441</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3241503438.629057</v>
+        <v>2573043137.435438</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07607431370788417</v>
+        <v>0.1028262064052643</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03683419624985788</v>
+        <v>0.04728204336158622</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4864314633.78494</v>
+        <v>3862459554.901099</v>
       </c>
       <c r="F71" t="n">
-        <v>0.114165778761448</v>
+        <v>0.1837595059555149</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02285679018266116</v>
+        <v>0.02449172824156714</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>195</v>
+      </c>
+      <c r="J71" t="n">
+        <v>257</v>
+      </c>
+      <c r="K71" t="n">
+        <v>86.678938656345</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2145600786.967067</v>
+        <v>1782267017.539027</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07686036190336354</v>
+        <v>0.08796648236709959</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03992306280914212</v>
+        <v>0.03230627336108607</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2900334391.313936</v>
+        <v>2753365217.588632</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1051597374814946</v>
+        <v>0.07955667193586469</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04610714693732258</v>
+        <v>0.03630032743565513</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3234699964.022216</v>
+        <v>2553982525.888917</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1361352808221108</v>
+        <v>0.1421771900823939</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03099265925495168</v>
+        <v>0.03272240216355479</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2217133856.653588</v>
+        <v>2384210569.080771</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1232037210975598</v>
+        <v>0.1156528812269073</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03693709024801642</v>
+        <v>0.0284444671830641</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3299654630.092792</v>
+        <v>4428674302.995921</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08584626479756752</v>
+        <v>0.08130578130375488</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02967639238492201</v>
+        <v>0.02845398366324752</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>120</v>
+      </c>
+      <c r="J76" t="n">
+        <v>258</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1751479266.73703</v>
+        <v>1691295405.944323</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1767576181242223</v>
+        <v>0.1583032032965316</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02683843536590902</v>
+        <v>0.02734300245521974</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4516382434.198428</v>
+        <v>3950899888.117685</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09322809500349905</v>
+        <v>0.08337980255042052</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05272512947605681</v>
+        <v>0.04531390120923605</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>129</v>
+      </c>
+      <c r="J78" t="n">
+        <v>258</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1312231534.002725</v>
+        <v>1463433403.936976</v>
       </c>
       <c r="F79" t="n">
-        <v>0.155897146065399</v>
+        <v>0.1231480774449796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03145758164155612</v>
+        <v>0.03868895658539839</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3613831996.728306</v>
+        <v>3896088823.328308</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020070034683954</v>
+        <v>0.07638803635142037</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03377812556907052</v>
+        <v>0.02508775469840187</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>126</v>
+      </c>
+      <c r="J80" t="n">
+        <v>257</v>
+      </c>
+      <c r="K80" t="n">
+        <v>64.75370345923126</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4382410651.504855</v>
+        <v>4714514188.502837</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09318118711087441</v>
+        <v>0.1357039816542141</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02717662797454216</v>
+        <v>0.02527975254454199</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>118</v>
+      </c>
+      <c r="J81" t="n">
+        <v>257</v>
+      </c>
+      <c r="K81" t="n">
+        <v>87.20326757714587</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3491473836.090904</v>
+        <v>4545261630.746354</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1862265296717901</v>
+        <v>0.1337323233038113</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02915348279446415</v>
+        <v>0.02661002915701042</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>257</v>
+      </c>
+      <c r="K82" t="n">
+        <v>99.5791039662888</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1636503630.012577</v>
+        <v>2300791815.292994</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1520336540822248</v>
+        <v>0.132778134588411</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04241349621976126</v>
+        <v>0.04370934416902127</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2041898619.498288</v>
+        <v>1964536784.054457</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09446385827140573</v>
+        <v>0.09114943701644375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03776383595513799</v>
+        <v>0.04667079206010886</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2881610292.740586</v>
+        <v>2892195283.568509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1695228454464607</v>
+        <v>0.120315799729483</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05439840226754135</v>
+        <v>0.04930880544641782</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2014628881.084347</v>
+        <v>2715678275.725158</v>
       </c>
       <c r="F86" t="n">
-        <v>0.141473681588743</v>
+        <v>0.1152138887894665</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01766431606693762</v>
+        <v>0.02071760708021517</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>928532617.1121128</v>
+        <v>1333326009.961984</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1185043122354985</v>
+        <v>0.1417550676509905</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03218399995287018</v>
+        <v>0.02924929061665179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2752471216.253871</v>
+        <v>3076554832.699587</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1706664774565317</v>
+        <v>0.1558618023195605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02703566547904886</v>
+        <v>0.02796786561764231</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2242104985.770851</v>
+        <v>3467474663.796671</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1546547537614459</v>
+        <v>0.1081638595614912</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03091902456116665</v>
+        <v>0.03527329690051036</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1572937592.803128</v>
+        <v>2107741897.625051</v>
       </c>
       <c r="F90" t="n">
-        <v>0.133468642092213</v>
+        <v>0.08310673235770359</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05053943151891233</v>
+        <v>0.05214669169579098</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1541516172.020134</v>
+        <v>1442614676.17598</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1286344998938407</v>
+        <v>0.1809027785413121</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06161529446050196</v>
+        <v>0.04642020015833156</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2323229371.71722</v>
+        <v>2519095604.829957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08887300096372787</v>
+        <v>0.0704298636562419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0471762220041257</v>
+        <v>0.0415394879610846</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4081153768.403339</v>
+        <v>3537668543.423505</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1267584737760536</v>
+        <v>0.1408101073651919</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04808060915664253</v>
+        <v>0.04268563454677104</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257</v>
+      </c>
+      <c r="K93" t="n">
+        <v>70.93369121105528</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2268541060.990838</v>
+        <v>2139051394.66614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1475938773242188</v>
+        <v>0.1554606891521066</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03913235500250857</v>
+        <v>0.03018008693529691</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2468402688.789147</v>
+        <v>2893537035.150473</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130826464980366</v>
+        <v>0.1225158183887789</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04860601716959985</v>
+        <v>0.03678477313442376</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2285514746.1535</v>
+        <v>2139847564.922575</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1252868300048099</v>
+        <v>0.09675858666813024</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03138071106407756</v>
+        <v>0.03292385760633917</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4398114625.999924</v>
+        <v>4300762505.197857</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430472302029083</v>
+        <v>0.1630751906775312</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02169712454409256</v>
+        <v>0.01982971144232204</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>126</v>
+      </c>
+      <c r="J97" t="n">
+        <v>258</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2579122355.467118</v>
+        <v>3274660922.360981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08863648950839524</v>
+        <v>0.1300747679296046</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02529908909324144</v>
+        <v>0.0203615856588443</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>63</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3110368621.793959</v>
+        <v>3092353114.178546</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09031444895438082</v>
+        <v>0.1278436649153423</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02617460350663252</v>
+        <v>0.02859935743981654</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3710390875.784763</v>
+        <v>3876893892.643085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1306293058073204</v>
+        <v>0.1423467056608982</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02705941046888327</v>
+        <v>0.02080994791547276</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>108</v>
+      </c>
+      <c r="J100" t="n">
+        <v>258</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2664536772.213587</v>
+        <v>2495749499.107091</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1403631999774504</v>
+        <v>0.1543724647741896</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05620259492916548</v>
+        <v>0.05625102733255115</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
